--- a/unittests/test_cases/list_format.xlsx
+++ b/unittests/test_cases/list_format.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\FCM_Projects\FCM_Python\FCM_BCI\jupyter_prototype\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\FCM_Projects\FCM_Python\FCM_BCI\PyFcmBci\unittests\test_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42E0554-89F3-4A32-8430-DEF9292F4432}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A332515-A79D-49B0-89DA-2978A7D78B04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34620" yWindow="2280" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,9 +403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
